--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2544004.839812987</v>
+        <v>-2546926.08479724</v>
       </c>
     </row>
     <row r="7">
@@ -917,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>32.21140045679198</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386912</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506150254</v>
+        <v>14.02109506150228</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>25.2754001987022</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.88448735196012</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.38964480609287</v>
+        <v>23.38964480609335</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,13 +993,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653513614</v>
+        <v>7.336611653513444</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.88448735196012</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>34.88448735196012</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>23.65357118422321</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="S8" t="n">
         <v>92.66494928910228</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>12.71120930970042</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.71120930970042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>65.63472101604999</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516771</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>14.34273879062268</v>
       </c>
       <c r="R9" t="n">
-        <v>84.5694784127797</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>68.55494741742575</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>67.27654854321858</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>244.2492367528326</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>118.9549638808467</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.9527608181603</v>
+        <v>74.70459810936931</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.1644063769637</v>
+        <v>401.8545854757641</v>
       </c>
       <c r="H14" t="n">
         <v>286.8518683469698</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605488</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516565</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>123.7636335898695</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116144</v>
+        <v>85.68348164116145</v>
       </c>
       <c r="I15" t="n">
-        <v>4.86620090218895</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>97.01322053520487</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965137</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674404</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442967</v>
+        <v>9.199705998797477</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946972</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
         <v>218.097472392356</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545735</v>
       </c>
       <c r="U17" t="n">
         <v>219.3243840645689</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038409</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="18">
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947565</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.62773630384</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="21">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424834</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2381,7 +2381,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262555</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6277363038397</v>
@@ -2488,7 +2488,7 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
         <v>110.1245053442998</v>
@@ -2725,7 +2725,7 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
         <v>110.1245053442998</v>
@@ -2962,7 +2962,7 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G31" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
         <v>110.1245053442998</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424834</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D32" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3047,7 +3047,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.378737124468898e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T32" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659985</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221575</v>
+        <v>42.0474723022158</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424834</v>
       </c>
       <c r="T34" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368233</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
-        <v>1.660112047829898e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545723</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
@@ -3478,7 +3478,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3521,7 +3521,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
-        <v>1.378737124468898e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G40" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
         <v>254.5831063612652</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295182</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
@@ -3898,7 +3898,7 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C43" t="n">
-        <v>135.6366187464139</v>
+        <v>135.636618746414</v>
       </c>
       <c r="D43" t="n">
         <v>117.0052706659985</v>
@@ -3910,13 +3910,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G43" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510283</v>
       </c>
       <c r="H43" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453018</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424834</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442998</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453016</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.0474723022158</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424834</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="C5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="D5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="E5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="F5" t="n">
-        <v>77.48987442551861</v>
+        <v>51.95916715410387</v>
       </c>
       <c r="G5" t="n">
-        <v>63.55832217064278</v>
+        <v>38.02761489922804</v>
       </c>
       <c r="H5" t="n">
-        <v>63.55832217064278</v>
+        <v>38.02761489922804</v>
       </c>
       <c r="I5" t="n">
-        <v>63.55832217064278</v>
+        <v>38.02761489922804</v>
       </c>
       <c r="J5" t="n">
-        <v>31.02155403246905</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="K5" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="L5" t="n">
-        <v>5.366676928011117</v>
+        <v>5.366676928011428</v>
       </c>
       <c r="M5" t="n">
-        <v>39.90231940645163</v>
+        <v>39.90231940645231</v>
       </c>
       <c r="N5" t="n">
-        <v>74.43796188489215</v>
+        <v>74.4379618848932</v>
       </c>
       <c r="O5" t="n">
-        <v>98.59809745906807</v>
+        <v>98.59809745906944</v>
       </c>
       <c r="P5" t="n">
-        <v>84.43537517472208</v>
+        <v>84.4353751747237</v>
       </c>
       <c r="Q5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="R5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="S5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="T5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="U5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="V5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="W5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="X5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.43537517472208</v>
+        <v>58.90466790330734</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69.06423758569883</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="C6" t="n">
-        <v>33.82738167462801</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="D6" t="n">
-        <v>33.82738167462801</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="E6" t="n">
-        <v>33.82738167462801</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="F6" t="n">
-        <v>10.20147783008975</v>
+        <v>80.67518965223201</v>
       </c>
       <c r="G6" t="n">
-        <v>10.20147783008975</v>
+        <v>80.67518965223201</v>
       </c>
       <c r="H6" t="n">
-        <v>10.20147783008975</v>
+        <v>80.67518965223201</v>
       </c>
       <c r="I6" t="n">
-        <v>10.20147783008975</v>
+        <v>45.43833374116081</v>
       </c>
       <c r="J6" t="n">
-        <v>10.20147783008975</v>
+        <v>10.20147783008961</v>
       </c>
       <c r="K6" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="L6" t="n">
-        <v>37.32640146659732</v>
+        <v>37.32640146659772</v>
       </c>
       <c r="M6" t="n">
-        <v>50.3159302797789</v>
+        <v>71.86204394503861</v>
       </c>
       <c r="N6" t="n">
-        <v>84.85157275821942</v>
+        <v>84.85157275822033</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366599</v>
+        <v>119.3872152366612</v>
       </c>
       <c r="P6" t="n">
-        <v>139.5379494078405</v>
+        <v>139.5379494078419</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.3010934967697</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="R6" t="n">
-        <v>104.3010934967697</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="S6" t="n">
-        <v>104.3010934967697</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="T6" t="n">
-        <v>104.3010934967697</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="U6" t="n">
-        <v>104.3010934967697</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="V6" t="n">
-        <v>104.3010934967697</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="W6" t="n">
-        <v>69.06423758569883</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="X6" t="n">
-        <v>69.06423758569883</v>
+        <v>104.3010934967707</v>
       </c>
       <c r="Y6" t="n">
-        <v>69.06423758569883</v>
+        <v>104.3010934967707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="C7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="D7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="E7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="F7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="G7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="H7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="I7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="J7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="K7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="L7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="M7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="N7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="O7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="P7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="R7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="S7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="T7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="U7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="V7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="W7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="X7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.79075898815681</v>
+        <v>2.790758988156839</v>
       </c>
     </row>
     <row r="8">
@@ -4805,13 +4805,13 @@
         <v>7.413195943128183</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821463</v>
+        <v>21.18357364821455</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940386</v>
+        <v>75.16870670940382</v>
       </c>
       <c r="M8" t="n">
-        <v>166.907006505615</v>
+        <v>166.9070065056151</v>
       </c>
       <c r="N8" t="n">
         <v>258.6453063018263</v>
@@ -4826,13 +4826,13 @@
         <v>346.7673010107291</v>
       </c>
       <c r="R8" t="n">
-        <v>346.7673010107291</v>
+        <v>253.166342132848</v>
       </c>
       <c r="S8" t="n">
-        <v>253.166342132848</v>
+        <v>159.5653832549669</v>
       </c>
       <c r="T8" t="n">
-        <v>253.166342132848</v>
+        <v>159.5653832549669</v>
       </c>
       <c r="U8" t="n">
         <v>159.5653832549669</v>
@@ -4844,7 +4844,7 @@
         <v>159.5653832549669</v>
       </c>
       <c r="X8" t="n">
-        <v>159.5653832549669</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="Y8" t="n">
         <v>146.7257778916331</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>201.5010450141585</v>
+        <v>194.6151136988904</v>
       </c>
       <c r="C9" t="n">
-        <v>201.5010450141585</v>
+        <v>101.0141548210093</v>
       </c>
       <c r="D9" t="n">
-        <v>201.5010450141585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="E9" t="n">
-        <v>201.5010450141585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="F9" t="n">
-        <v>201.5010450141585</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="G9" t="n">
-        <v>107.9000861362774</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="H9" t="n">
-        <v>107.9000861362774</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="I9" t="n">
-        <v>41.60238814026729</v>
+        <v>7.413195943128183</v>
       </c>
       <c r="J9" t="n">
         <v>7.413195943128183</v>
@@ -4890,10 +4890,10 @@
         <v>102.6982772648968</v>
       </c>
       <c r="M9" t="n">
-        <v>194.436577061108</v>
+        <v>134.8197310560415</v>
       </c>
       <c r="N9" t="n">
-        <v>286.1748768573193</v>
+        <v>226.5580308522527</v>
       </c>
       <c r="O9" t="n">
         <v>317.2247932514008</v>
@@ -4905,28 +4905,28 @@
         <v>356.1721822163862</v>
       </c>
       <c r="R9" t="n">
-        <v>270.7484666479219</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="S9" t="n">
-        <v>201.5010450141585</v>
+        <v>356.1721822163862</v>
       </c>
       <c r="T9" t="n">
-        <v>201.5010450141585</v>
+        <v>288.2160725767715</v>
       </c>
       <c r="U9" t="n">
-        <v>201.5010450141585</v>
+        <v>288.2160725767715</v>
       </c>
       <c r="V9" t="n">
-        <v>201.5010450141585</v>
+        <v>288.2160725767715</v>
       </c>
       <c r="W9" t="n">
-        <v>201.5010450141585</v>
+        <v>288.2160725767715</v>
       </c>
       <c r="X9" t="n">
-        <v>201.5010450141585</v>
+        <v>288.2160725767715</v>
       </c>
       <c r="Y9" t="n">
-        <v>201.5010450141585</v>
+        <v>288.2160725767715</v>
       </c>
     </row>
     <row r="10">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1565.219016943946</v>
+        <v>1575.915835277607</v>
       </c>
       <c r="C11" t="n">
-        <v>1565.219016943946</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D11" t="n">
         <v>1206.953318337195</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>3078.889420848735</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2726.12076557862</v>
       </c>
       <c r="X11" t="n">
-        <v>1951.818857008067</v>
+        <v>2352.65500731754</v>
       </c>
       <c r="Y11" t="n">
-        <v>1951.818857008067</v>
+        <v>1962.515675341729</v>
       </c>
     </row>
     <row r="12">
@@ -5118,10 +5118,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158131</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.8392614048163</v>
+        <v>628.7269654071711</v>
       </c>
       <c r="C13" t="n">
-        <v>754.9030784769094</v>
+        <v>459.7907824792642</v>
       </c>
       <c r="D13" t="n">
-        <v>754.9030784769094</v>
+        <v>309.6741430669284</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
@@ -5221,28 +5221,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V13" t="n">
-        <v>1615.697475415547</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.280305378586</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X13" t="n">
-        <v>1326.280305378586</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y13" t="n">
-        <v>1105.487726235056</v>
+        <v>810.3754302374108</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2325.545057758603</v>
+        <v>1958.885600665793</v>
       </c>
       <c r="C14" t="n">
-        <v>1956.582540818192</v>
+        <v>1589.923083725381</v>
       </c>
       <c r="D14" t="n">
-        <v>1598.316842211441</v>
+        <v>1589.923083725381</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.528589613197</v>
+        <v>1204.134831127137</v>
       </c>
       <c r="F14" t="n">
-        <v>801.5426848235894</v>
+        <v>793.1489263375292</v>
       </c>
       <c r="G14" t="n">
         <v>387.2352036347372</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810099</v>
+        <v>97.48584166810102</v>
       </c>
       <c r="I14" t="n">
         <v>84.98040897511626</v>
@@ -5291,10 +5291,10 @@
         <v>2681.771598889756</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q14" t="n">
         <v>4142.90714476723</v>
@@ -5303,25 +5303,25 @@
         <v>4249.020448755813</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.16151059908</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.53241463263</v>
+        <v>4046.391352789362</v>
       </c>
       <c r="U14" t="n">
-        <v>3828.518643329731</v>
+        <v>3792.922073580491</v>
       </c>
       <c r="V14" t="n">
-        <v>3828.518643329731</v>
+        <v>3461.85918623692</v>
       </c>
       <c r="W14" t="n">
-        <v>3475.749988059617</v>
+        <v>3109.090530966806</v>
       </c>
       <c r="X14" t="n">
-        <v>3102.284229798537</v>
+        <v>2735.624772705726</v>
       </c>
       <c r="Y14" t="n">
-        <v>2712.144897822725</v>
+        <v>2345.485440729914</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H15" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J15" t="n">
-        <v>216.5575109835861</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334507</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277783</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M15" t="n">
-        <v>1428.524759781581</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N15" t="n">
-        <v>1428.524759781581</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729832</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R15" t="n">
         <v>2555.644190323788</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1027.00235520219</v>
+        <v>400.2532004395721</v>
       </c>
       <c r="C16" t="n">
-        <v>858.0661722742834</v>
+        <v>400.2532004395721</v>
       </c>
       <c r="D16" t="n">
-        <v>707.9495328619477</v>
+        <v>400.2532004395721</v>
       </c>
       <c r="E16" t="n">
-        <v>560.0364392795545</v>
+        <v>252.340106857179</v>
       </c>
       <c r="F16" t="n">
-        <v>413.1464917816442</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258817</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511626</v>
@@ -5437,49 +5437,49 @@
         <v>153.8801783755868</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869779</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042037</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M16" t="n">
-        <v>1160.375677726127</v>
+        <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
         <v>1553.248699711515</v>
       </c>
       <c r="O16" t="n">
-        <v>1900.114228341786</v>
+        <v>1900.114228341785</v>
       </c>
       <c r="P16" t="n">
-        <v>2173.396928727847</v>
+        <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.168624967672</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.766933397541</v>
+        <v>2269.875992645654</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685726</v>
+        <v>2084.170080933838</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.76054452173</v>
+        <v>1863.869603769842</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306095</v>
+        <v>1574.785453554207</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100208</v>
+        <v>1320.10096534832</v>
       </c>
       <c r="W16" t="n">
-        <v>1254.991906100208</v>
+        <v>1030.683795311359</v>
       </c>
       <c r="X16" t="n">
-        <v>1027.00235520219</v>
+        <v>802.6942444133419</v>
       </c>
       <c r="Y16" t="n">
-        <v>1027.00235520219</v>
+        <v>581.9016652698118</v>
       </c>
     </row>
     <row r="17">
@@ -5543,19 +5543,19 @@
         <v>4188.091007924549</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
         <v>2476.13298385146</v>
@@ -5592,25 +5592,25 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511626</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L18" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M18" t="n">
-        <v>1381.83934483395</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N18" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5732,16 +5732,16 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162844</v>
       </c>
       <c r="H20" t="n">
         <v>84.98040897511625</v>
@@ -5756,7 +5756,7 @@
         <v>766.6831886951452</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M20" t="n">
         <v>2001.213713746739</v>
@@ -5795,7 +5795,7 @@
         <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5841,13 +5841,13 @@
         <v>1522.315654538068</v>
       </c>
       <c r="N21" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
         <v>2555.644190323788</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477723</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
         <v>251.2943450749445</v>
@@ -5908,13 +5908,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5932,10 +5932,10 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127669</v>
@@ -5953,7 +5953,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511625</v>
@@ -6017,16 +6017,16 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501803</v>
@@ -6075,10 +6075,10 @@
         <v>973.3971899277781</v>
       </c>
       <c r="M24" t="n">
-        <v>1471.383887449135</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N24" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O24" t="n">
         <v>2555.644190323788</v>
@@ -6203,16 +6203,16 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
@@ -6251,16 +6251,16 @@
         <v>4249.020448755812</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
@@ -6306,25 +6306,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K27" t="n">
-        <v>301.7509472448904</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448904</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6382,19 +6382,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042792</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443619</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902794</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
         <v>2087.878830313936</v>
@@ -6458,22 +6458,22 @@
         <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511598</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076835</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
         <v>3311.067850233288</v>
@@ -6491,7 +6491,7 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400163</v>
@@ -6543,25 +6543,25 @@
         <v>216.557510983586</v>
       </c>
       <c r="K30" t="n">
-        <v>301.7509472448904</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448904</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609051</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897932</v>
@@ -6619,19 +6619,19 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042792</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443619</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902794</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313936</v>
@@ -6643,7 +6643,7 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
         <v>2333.272818966197</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796675</v>
+        <v>725.178257479669</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162853</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511765</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J32" t="n">
         <v>337.4933016076839</v>
@@ -6713,37 +6713,37 @@
         <v>2681.771598889756</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V32" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H33" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J33" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K33" t="n">
-        <v>301.7509472448904</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448904</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502107</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477724</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042776</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443603</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902779</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M34" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216584</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796691</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162855</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511794</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511598</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076835</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889757</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924549</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283567</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400164</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V35" t="n">
         <v>3496.718237382061</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437416</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501805</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851462</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J36" t="n">
         <v>216.557510983586</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D37" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G37" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
         <v>459.5287020443613</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
         <v>2487.049233352543</v>
@@ -7123,19 +7123,19 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7160,22 +7160,22 @@
         <v>1104.234664943808</v>
       </c>
       <c r="F38" t="n">
-        <v>725.178257479669</v>
+        <v>725.1782574796691</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162853</v>
+        <v>342.8002736162855</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511765</v>
+        <v>84.98040897511794</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511626</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050964</v>
@@ -7187,10 +7187,10 @@
         <v>2681.771598889757</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.90714476723</v>
@@ -7251,19 +7251,19 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J39" t="n">
-        <v>165.6257438946542</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K39" t="n">
-        <v>468.6667932445187</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L39" t="n">
-        <v>922.4654228388462</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M39" t="n">
-        <v>1471.383887449135</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O39" t="n">
         <v>2555.644190323788</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477715</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609044</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039808</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G40" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897932</v>
@@ -7330,19 +7330,19 @@
         <v>84.98040897511626</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443613</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
         <v>2087.878830313936</v>
@@ -7372,10 +7372,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y40" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216584</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796671</v>
+        <v>725.178257479669</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162853</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511765</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
         <v>2001.213713746739</v>
@@ -7427,34 +7427,34 @@
         <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400164</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851462</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J42" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K42" t="n">
-        <v>301.7509472448904</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L42" t="n">
-        <v>301.7509472448904</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M42" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N42" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O42" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502107</v>
+        <v>872.862419750211</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477724</v>
+        <v>735.8557341477726</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609052</v>
+        <v>617.6685920609054</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039807</v>
+        <v>501.6849958039809</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315389</v>
+        <v>386.7245456315391</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749448</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042787</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
         <v>1709.719201354974</v>
@@ -7591,16 +7591,16 @@
         <v>2529.521427597206</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.90183912767</v>
       </c>
       <c r="U43" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237503</v>
       </c>
       <c r="V43" t="n">
         <v>1664.992195357084</v>
@@ -7609,7 +7609,7 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y43" t="n">
         <v>1022.581387254982</v>
@@ -7634,55 +7634,55 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233289</v>
       </c>
       <c r="P44" t="n">
         <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.90714476723</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755813</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283567</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W44" t="n">
         <v>3175.879079437414</v>
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J45" t="n">
         <v>216.557510983586</v>
       </c>
       <c r="K45" t="n">
-        <v>301.7509472448904</v>
+        <v>519.5985603334506</v>
       </c>
       <c r="L45" t="n">
-        <v>301.7509472448904</v>
+        <v>973.3971899277781</v>
       </c>
       <c r="M45" t="n">
-        <v>850.6694118551798</v>
+        <v>1522.315654538068</v>
       </c>
       <c r="N45" t="n">
-        <v>1428.524759781582</v>
+        <v>2100.17100246447</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502105</v>
       </c>
       <c r="C46" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609049</v>
+        <v>617.668592060905</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039805</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315387</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749445</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897932</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511626</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042789</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443616</v>
       </c>
       <c r="L46" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902791</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040894</v>
@@ -7819,37 +7819,37 @@
         <v>1709.719201354974</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U46" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
   </sheetData>
@@ -10030,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272403</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
         <v>106.7437663446525</v>
@@ -10045,7 +10045,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O28" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658828</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272403</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272237</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
         <v>106.7437663446525</v>
@@ -10750,7 +10750,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094447</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -11452,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>33.63624132272378</v>
       </c>
       <c r="K46" t="n">
         <v>106.7437663446525</v>
@@ -22565,13 +22565,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>127.1620137273376</v>
       </c>
       <c r="J2" t="n">
-        <v>61.69418201095224</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>28.74947534450564</v>
@@ -22589,13 +22589,13 @@
         <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>80.64258426171736</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22647,10 +22647,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,7 +22668,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -22735,13 +22735,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>83.50302171730235</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>250.7761367976224</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>17.48120182840884</v>
+        <v>71.72936453719986</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.3098209011996</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.93034877516568</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>127.1709528269133</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>68.67288036803727</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674405</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>64.45796865563221</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.090339436214857e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.190246567156956e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.400124791776761e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38654.42660963806</v>
+        <v>38654.42660963804</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>34099.70989709206</v>
+        <v>34099.70989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>38337.15909756553</v>
+        <v>38337.15909756551</v>
       </c>
       <c r="G2" t="n">
         <v>41052.08849321421</v>
@@ -26332,28 +26332,28 @@
         <v>41052.08849321416</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.0884932142</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321421</v>
       </c>
       <c r="K2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321421</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41052.08849321415</v>
+      </c>
+      <c r="P2" t="n">
         <v>41052.08849321421</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321415</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321414</v>
-      </c>
-      <c r="O2" t="n">
-        <v>41052.08849321416</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321416</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263394</v>
+        <v>56271.05156263447</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945845</v>
+        <v>88049.46972945795</v>
       </c>
       <c r="E3" t="n">
         <v>728470.1008399349</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963084</v>
+        <v>215052.1096963083</v>
       </c>
       <c r="G3" t="n">
         <v>25288.1618817711</v>
@@ -26390,16 +26390,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740799274</v>
+        <v>8978.150740799367</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390441</v>
+        <v>39911.87677390437</v>
       </c>
       <c r="M3" t="n">
-        <v>184096.0922694316</v>
+        <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.29359578637</v>
+        <v>56542.29359578642</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>330698.4677251938</v>
       </c>
       <c r="C4" t="n">
-        <v>340674.6247663278</v>
+        <v>340674.6247663276</v>
       </c>
       <c r="D4" t="n">
         <v>312487.2615518147</v>
@@ -26427,34 +26427,34 @@
         <v>15869.84275221455</v>
       </c>
       <c r="F4" t="n">
-        <v>15989.31768391306</v>
+        <v>15989.31768391307</v>
       </c>
       <c r="G4" t="n">
+        <v>47059.20276613306</v>
+      </c>
+      <c r="H4" t="n">
         <v>47059.20276613305</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>47059.20276613304</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47059.20276613306</v>
       </c>
       <c r="J4" t="n">
         <v>47059.20276613305</v>
       </c>
       <c r="K4" t="n">
-        <v>47059.20276613306</v>
+        <v>47059.20276613304</v>
       </c>
       <c r="L4" t="n">
+        <v>47059.202766133</v>
+      </c>
+      <c r="M4" t="n">
         <v>47059.20276613309</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>47059.20276613302</v>
       </c>
-      <c r="N4" t="n">
-        <v>47059.202766133</v>
-      </c>
       <c r="O4" t="n">
-        <v>47059.20276613306</v>
+        <v>47059.20276613298</v>
       </c>
       <c r="P4" t="n">
         <v>47059.20276613306</v>
@@ -26470,7 +26470,7 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097119</v>
+        <v>43939.64495097122</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
@@ -26479,7 +26479,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060705</v>
+        <v>92448.99600060703</v>
       </c>
       <c r="G5" t="n">
         <v>95106.43410215531</v>
@@ -26497,19 +26497,19 @@
         <v>95106.4341021553</v>
       </c>
       <c r="L5" t="n">
+        <v>95106.43410215531</v>
+      </c>
+      <c r="M5" t="n">
         <v>95106.4341021553</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215531</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215531</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215531</v>
       </c>
       <c r="P5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215531</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-647229.8649159595</v>
+        <v>-647349.7480101384</v>
       </c>
       <c r="C6" t="n">
-        <v>-399833.2327867188</v>
+        <v>-399833.2327867192</v>
       </c>
       <c r="D6" t="n">
-        <v>-408721.7624538952</v>
+        <v>-408721.7624538947</v>
       </c>
       <c r="E6" t="n">
-        <v>-784546.5742564506</v>
+        <v>-784894.1931862567</v>
       </c>
       <c r="F6" t="n">
-        <v>-285153.2642832631</v>
+        <v>-285289.0107530453</v>
       </c>
       <c r="G6" t="n">
         <v>-126401.7102568453</v>
@@ -26546,13 +26546,13 @@
         <v>-101113.5483750741</v>
       </c>
       <c r="K6" t="n">
-        <v>-110091.6991158734</v>
+        <v>-110091.6991158735</v>
       </c>
       <c r="L6" t="n">
-        <v>-141025.4251489786</v>
+        <v>-141025.4251489785</v>
       </c>
       <c r="M6" t="n">
-        <v>-285209.6406445058</v>
+        <v>-285209.6406445057</v>
       </c>
       <c r="N6" t="n">
         <v>-157655.8419708606</v>
@@ -26713,19 +26713,19 @@
         <v>31.61020235221388</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="N2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O2" t="n">
+        <v>31.61020235221387</v>
+      </c>
+      <c r="P2" t="n">
         <v>31.61020235221389</v>
-      </c>
-      <c r="P2" t="n">
-        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234867</v>
+        <v>375.7370697234871</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196012</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432242</v>
+        <v>49.41884193432287</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067889</v>
+        <v>81.85424904067844</v>
       </c>
       <c r="E3" t="n">
         <v>632.1853818291327</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268252</v>
+        <v>188.3831700268249</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196012</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="D4" t="n">
-        <v>57.78046193714218</v>
+        <v>57.78046193714181</v>
       </c>
       <c r="E4" t="n">
         <v>738.7365061131906</v>
@@ -27036,16 +27036,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196013</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714219</v>
+        <v>57.78046193714216</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131909</v>
+        <v>738.7365061131903</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866604</v>
+        <v>230.8536567866606</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,10 +27258,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196012</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714218</v>
+        <v>57.78046193714181</v>
       </c>
       <c r="M4" t="n">
         <v>738.7365061131906</v>
@@ -27397,13 +27397,13 @@
         <v>326.0400019133721</v>
       </c>
       <c r="I2" t="n">
-        <v>159.9014836333536</v>
+        <v>32.73946990601607</v>
       </c>
       <c r="J2" t="n">
-        <v>8.011615236053295</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171736</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>133.1811664518765</v>
       </c>
       <c r="S2" t="n">
-        <v>179.1266962566148</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.3533046710778</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27479,10 +27479,10 @@
         <v>75.35636030051944</v>
       </c>
       <c r="J3" t="n">
-        <v>60.52422152698378</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>24.50126734687161</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,7 +27500,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.38587124096644</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>102.1006281848752</v>
@@ -27567,13 +27567,13 @@
         <v>47.39929435887774</v>
       </c>
       <c r="M4" t="n">
-        <v>46.68471506615327</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>37.63776203285606</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>55.28283671961447</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>66.55853351624533</v>
@@ -27634,13 +27634,13 @@
         <v>324.0053859738348</v>
       </c>
       <c r="I5" t="n">
-        <v>152.242308141201</v>
+        <v>152.2423081412009</v>
       </c>
       <c r="J5" t="n">
-        <v>20.63263825504492</v>
+        <v>17.95955135987627</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>27.94848709386886</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>59.18859846499353</v>
+        <v>33.91319826629113</v>
       </c>
       <c r="R5" t="n">
-        <v>120.7015430160699</v>
+        <v>120.7015430160698</v>
       </c>
       <c r="S5" t="n">
         <v>174.5995329980083</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>137.8240116363556</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>121.679567587291</v>
+        <v>121.6795675872905</v>
       </c>
       <c r="G6" t="n">
         <v>136.5353279943714</v>
@@ -27713,10 +27713,10 @@
         <v>104.4300383163916</v>
       </c>
       <c r="I6" t="n">
-        <v>71.6965687044399</v>
+        <v>36.81208135247937</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804756</v>
+        <v>15.59698630608698</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,10 +27737,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.932648269605195</v>
+        <v>1.932648269604698</v>
       </c>
       <c r="R6" t="n">
-        <v>95.50088170919338</v>
+        <v>95.50088170919332</v>
       </c>
       <c r="S6" t="n">
         <v>156.6714117615834</v>
@@ -27755,7 +27755,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>216.8104958089595</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27795,34 +27795,34 @@
         <v>135.0744384248764</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09202486169849</v>
+        <v>79.09202486169842</v>
       </c>
       <c r="K7" t="n">
-        <v>50.29326225141803</v>
+        <v>50.29326225141794</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385078088</v>
+        <v>34.15018385078076</v>
       </c>
       <c r="M7" t="n">
-        <v>32.7153856977349</v>
+        <v>32.71538569773477</v>
       </c>
       <c r="N7" t="n">
-        <v>24.0005920938323</v>
+        <v>24.00059209383217</v>
       </c>
       <c r="O7" t="n">
-        <v>42.68670304101045</v>
+        <v>42.68670304101033</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486459</v>
+        <v>55.78036510486449</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.76870410119935</v>
+        <v>94.76870410119929</v>
       </c>
       <c r="R7" t="n">
         <v>146.8278906090979</v>
       </c>
       <c r="S7" t="n">
-        <v>212.2085986491047</v>
+        <v>212.2085986491046</v>
       </c>
       <c r="T7" t="n">
         <v>225.0505661041825</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0310828299331</v>
+        <v>7.366133540830774</v>
       </c>
       <c r="S8" t="n">
         <v>74.43607637216448</v>
@@ -27907,7 +27907,7 @@
         <v>215.0431621354273</v>
       </c>
       <c r="U8" t="n">
-        <v>158.5335385714935</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>357.0198913687686</v>
       </c>
       <c r="Y8" t="n">
-        <v>373.5267293463531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>73.86823436076506</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921346</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>54.78011627553647</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,16 +27944,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>43.69431484884203</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H9" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>65.63472101604999</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>33.84730027516771</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>84.5694784127797</v>
       </c>
       <c r="S9" t="n">
-        <v>84.84615543201357</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
-        <v>196.197498299121</v>
+        <v>128.9209497559024</v>
       </c>
       <c r="U9" t="n">
         <v>225.8766285924705</v>
@@ -29101,7 +29101,7 @@
         <v>31.61020235221388</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221355</v>
       </c>
       <c r="Y23" t="n">
         <v>31.61020235221388</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I32" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605353</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221394</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605325</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605353</v>
+        <v>12.38037836605322</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605351</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221387</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605491</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="C46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="D46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="E46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="F46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="G46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="H46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="I46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="J46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="K46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="L46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="N46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="O46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="P46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="R46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="S46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="T46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="U46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="V46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="W46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="X46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221389</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782807985</v>
+        <v>1.510500782807987</v>
       </c>
       <c r="H5" t="n">
-        <v>15.46941614193229</v>
+        <v>15.4694161419323</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920492</v>
+        <v>58.23358142920499</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148494</v>
+        <v>128.2018658148495</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511114</v>
+        <v>192.1413639511117</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829714</v>
+        <v>238.3683522829717</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792329</v>
+        <v>265.2307205792332</v>
       </c>
       <c r="N5" t="n">
-        <v>264.297550948551</v>
+        <v>264.2975509485514</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693392</v>
+        <v>254.5023887693395</v>
       </c>
       <c r="P5" t="n">
-        <v>217.211900693767</v>
+        <v>217.2119006937673</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.117091409456</v>
+        <v>163.1170914094562</v>
       </c>
       <c r="R5" t="n">
-        <v>94.8839947980622</v>
+        <v>94.88399479806232</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823701</v>
+        <v>34.42053658823705</v>
       </c>
       <c r="T5" t="n">
-        <v>6.61221717674196</v>
+        <v>6.612217176741968</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1208400626246388</v>
+        <v>0.120840062624639</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688391978</v>
+        <v>0.8081891688391988</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104885</v>
+        <v>7.805405920104895</v>
       </c>
       <c r="I6" t="n">
-        <v>27.8258112955601</v>
+        <v>27.82581129556014</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300861913</v>
+        <v>76.35615300861923</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208454</v>
+        <v>130.5048273208455</v>
       </c>
       <c r="L6" t="n">
-        <v>173.4388671318343</v>
+        <v>173.4388671318347</v>
       </c>
       <c r="M6" t="n">
-        <v>155.2547700969492</v>
+        <v>177.0185212739788</v>
       </c>
       <c r="N6" t="n">
-        <v>166.2261994352934</v>
+        <v>144.4624482582643</v>
       </c>
       <c r="O6" t="n">
-        <v>177.4807317964045</v>
+        <v>177.4807317964049</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549166</v>
+        <v>154.3286843549168</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644562</v>
+        <v>103.1646384644563</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477057</v>
+        <v>50.17862225477062</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225439</v>
+        <v>15.01175934225441</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715888</v>
+        <v>3.257569500715892</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0531703400552104</v>
+        <v>0.05317034005521046</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210415</v>
+        <v>0.6775586503210423</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763446</v>
+        <v>6.024112363763453</v>
       </c>
       <c r="I7" t="n">
-        <v>20.37603650238187</v>
+        <v>20.3760365023819</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769763</v>
+        <v>47.90339657769769</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911735</v>
+        <v>78.71999591911744</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304574</v>
+        <v>100.7344924304575</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498702</v>
+        <v>106.2103982498703</v>
       </c>
       <c r="N7" t="n">
-        <v>103.6849523714009</v>
+        <v>103.684952371401</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083234</v>
+        <v>95.76983541083246</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428303</v>
+        <v>81.94763894428313</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824649</v>
+        <v>56.73629752824655</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807155</v>
+        <v>30.46550076807159</v>
       </c>
       <c r="S7" t="n">
-        <v>11.8079993878676</v>
+        <v>11.80799938786761</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324098995</v>
+        <v>2.895023324098998</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296595</v>
+        <v>0.03695774456296599</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,13 +31610,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111206</v>
+        <v>174.5799468423665</v>
       </c>
       <c r="N9" t="n">
         <v>224.0066613724356</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9597963576581</v>
+        <v>234.1788327264122</v>
       </c>
       <c r="P9" t="n">
         <v>187.9491588335306</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171346</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879732</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I14" t="n">
         <v>198.095511204351</v>
@@ -31999,28 +31999,28 @@
         <v>436.1094324383707</v>
       </c>
       <c r="K14" t="n">
-        <v>653.614989517164</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869755</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654302</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117595</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O14" t="n">
-        <v>865.7509905565681</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P14" t="n">
-        <v>738.898440582963</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972014</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581562</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S14" t="n">
         <v>117.0897208110797</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031964</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H15" t="n">
         <v>26.55196259533502</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781105</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J15" t="n">
         <v>259.7437903115857</v>
@@ -32081,31 +32081,31 @@
         <v>443.9435090247272</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155586</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>601.8588519561629</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O15" t="n">
-        <v>654.1164009578287</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892353</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>170.6946332877215</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486999</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T15" t="n">
-        <v>11.08140491603673</v>
+        <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
         <v>0.1808716798047345</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216616</v>
+        <v>2.304878455216615</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092593</v>
+        <v>20.49246481092592</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051425</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J16" t="n">
         <v>162.9549067838147</v>
@@ -32163,16 +32163,16 @@
         <v>342.6725659692049</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754555</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696484</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246178</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381986</v>
+        <v>278.7645724381985</v>
       </c>
       <c r="Q16" t="n">
         <v>193.0021404636386</v>
@@ -32181,10 +32181,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S16" t="n">
-        <v>40.16774544227501</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925538</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32312,7 +32312,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K18" t="n">
         <v>443.9435090247272</v>
@@ -32321,19 +32321,19 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>687.608030805495</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N18" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32561,16 +32561,16 @@
         <v>696.5971294879671</v>
       </c>
       <c r="N21" t="n">
-        <v>573.1387203886718</v>
+        <v>715.0339827160632</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32795,13 +32795,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>645.1509001052077</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N24" t="n">
         <v>715.0339827160632</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33026,10 +33026,10 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K27" t="n">
-        <v>223.8954149958786</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879671</v>
@@ -33038,16 +33038,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486998</v>
@@ -33263,10 +33263,10 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K30" t="n">
-        <v>223.8954149958786</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879671</v>
@@ -33275,16 +33275,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486998</v>
@@ -33500,10 +33500,10 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K33" t="n">
-        <v>223.8954149958786</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879671</v>
@@ -33512,16 +33512,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P33" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486998</v>
@@ -33971,7 +33971,7 @@
         <v>94.65617909781103</v>
       </c>
       <c r="J39" t="n">
-        <v>208.2975609288262</v>
+        <v>259.7437903115857</v>
       </c>
       <c r="K39" t="n">
         <v>443.9435090247272</v>
@@ -33986,7 +33986,7 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34147,7 +34147,7 @@
         <v>865.750990556568</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829615</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q41" t="n">
         <v>554.8819566972013</v>
@@ -34211,10 +34211,10 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K42" t="n">
-        <v>223.8954149958786</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879671</v>
@@ -34223,16 +34223,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486998</v>
@@ -34378,7 +34378,7 @@
         <v>902.2459874654299</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117584</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O44" t="n">
         <v>865.750990556568</v>
@@ -34448,10 +34448,10 @@
         <v>259.7437903115857</v>
       </c>
       <c r="K45" t="n">
-        <v>223.8954149958786</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879671</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160632</v>
       </c>
       <c r="O45" t="n">
-        <v>654.1164009578285</v>
+        <v>602.670171575069</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486998</v>
@@ -34939,16 +34939,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312984148</v>
+        <v>2.601937312984433</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196012</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196012</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765245</v>
+        <v>24.40417734765276</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.88448735196012</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="M6" t="n">
-        <v>13.12073617493089</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196012</v>
+        <v>13.12073617493103</v>
       </c>
       <c r="O6" t="n">
-        <v>34.88448735196012</v>
+        <v>34.88448735196049</v>
       </c>
       <c r="P6" t="n">
-        <v>20.3542769405864</v>
+        <v>20.3542769405866</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>75.15371678069204</v>
       </c>
       <c r="M9" t="n">
-        <v>92.66494928910228</v>
+        <v>32.44591292034816</v>
       </c>
       <c r="N9" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="O9" t="n">
-        <v>31.36355191321363</v>
+        <v>91.58258828196773</v>
       </c>
       <c r="P9" t="n">
         <v>53.97475141920035</v>
@@ -35647,25 +35647,25 @@
         <v>255.0635279116844</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721834</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169883</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381575</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N14" t="n">
         <v>687.4322072151685</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348814</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276934</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227519</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R14" t="n">
         <v>107.185155544024</v>
@@ -35729,25 +35729,25 @@
         <v>306.1020700503682</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356844</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>459.7248180341446</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O15" t="n">
-        <v>511.5201565133842</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749051</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831113</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.01512932375752</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714195</v>
+        <v>69.59572666714192</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892839</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
         <v>370.262591229521</v>
@@ -35814,13 +35814,13 @@
         <v>400.884051537296</v>
       </c>
       <c r="N16" t="n">
-        <v>396.841436348877</v>
+        <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
         <v>350.3692208386574</v>
       </c>
       <c r="P16" t="n">
-        <v>276.0431317030921</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q16" t="n">
         <v>106.8400972119442</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K18" t="n">
         <v>306.1020700503682</v>
@@ -35969,19 +35969,19 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>545.4739968834766</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P18" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36209,16 +36209,16 @@
         <v>554.4630955659488</v>
       </c>
       <c r="N21" t="n">
-        <v>441.7970083053385</v>
+        <v>583.6922706327299</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P21" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>503.0168661831893</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N24" t="n">
         <v>583.6922706327299</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>132.906163644919</v>
       </c>
       <c r="K27" t="n">
-        <v>86.05397602151957</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659488</v>
@@ -36686,16 +36686,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O27" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P27" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.2059290193565</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
         <v>277.1256801414977</v>
@@ -36765,7 +36765,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908716</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36911,10 +36911,10 @@
         <v>132.906163644919</v>
       </c>
       <c r="K30" t="n">
-        <v>86.05397602151957</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659488</v>
@@ -36923,16 +36923,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P30" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193565</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
         <v>277.1256801414977</v>
@@ -37148,10 +37148,10 @@
         <v>132.906163644919</v>
       </c>
       <c r="K33" t="n">
-        <v>86.05397602151957</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659488</v>
@@ -37160,16 +37160,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P33" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193549</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
         <v>277.1256801414978</v>
@@ -37467,10 +37467,10 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.494253889509</v>
       </c>
       <c r="N37" t="n">
         <v>428.4516387010908</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-1.693819046862461e-12</v>
       </c>
       <c r="J38" t="n">
         <v>255.0635279116844</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>81.45993426215952</v>
+        <v>132.906163644919</v>
       </c>
       <c r="K39" t="n">
         <v>306.1020700503682</v>
@@ -37634,7 +37634,7 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895099</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.406731072817976e-12</v>
       </c>
       <c r="J41" t="n">
         <v>255.0635279116844</v>
@@ -37795,7 +37795,7 @@
         <v>635.6527791348813</v>
       </c>
       <c r="P41" t="n">
-        <v>507.665444827692</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q41" t="n">
         <v>332.5762668227518</v>
@@ -37859,10 +37859,10 @@
         <v>132.906163644919</v>
       </c>
       <c r="K42" t="n">
-        <v>86.05397602151965</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659488</v>
@@ -37871,16 +37871,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P42" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L43" t="n">
         <v>401.8727935817349</v>
@@ -38026,7 +38026,7 @@
         <v>671.8997542381572</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151674</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O44" t="n">
         <v>635.6527791348813</v>
@@ -38096,10 +38096,10 @@
         <v>132.906163644919</v>
       </c>
       <c r="K45" t="n">
-        <v>86.05397602151965</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659488</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327299</v>
       </c>
       <c r="O45" t="n">
-        <v>511.5201565133841</v>
+        <v>460.0739271306246</v>
       </c>
       <c r="P45" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375749</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193562</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817349</v>
